--- a/excel_templates/Inputs to UNAIDS Estimates 2020/population_inputs.xlsx
+++ b/excel_templates/Inputs to UNAIDS Estimates 2020/population_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Column Definitions" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">UNAIDS Population Input | Data Template</t>
   </si>
   <si>
-    <t xml:space="preserve">version 2.0; 2020-08-14</t>
+    <t xml:space="preserve">version 2.1; 2020-11-10</t>
   </si>
   <si>
     <t xml:space="preserve">Please use the following definitions to fill in the template overleaf. If data does not exist, please indicate so with the value "NA" and ignore any warning given by Excel.</t>
@@ -258,12 +258,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -329,28 +329,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="48.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -360,7 +359,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -370,7 +369,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -380,7 +379,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -400,7 +399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
@@ -420,7 +419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>14</v>
       </c>
@@ -437,7 +436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>17</v>
       </c>
@@ -454,7 +453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>19</v>
       </c>
@@ -474,7 +473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
@@ -494,7 +493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>24</v>
       </c>
@@ -514,7 +513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>26</v>
       </c>
@@ -531,7 +530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>30</v>
       </c>
@@ -548,7 +547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -556,7 +555,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -584,27 +583,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,6 +632,20 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E1001" type="list">
+      <formula1>"both,male,female"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G1001" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H1001" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
